--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7355" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7392" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1665,6 +1665,19 @@
     <t>Isolated tumor cells (ITC) are single tumor cells or small clusters of cells not more than 0.2 mm in greatest extent that can be detected by routine H and E stains or immunohistochemistry.</t>
   </si>
   <si>
+    <t>snSuffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.vision-zero-oncology.de/fhir/StructureDefinition/uicc-tnm-suffix-itc-sn}
+</t>
+  </si>
+  <si>
+    <t>Sentinel Lymph Node</t>
+  </si>
+  <si>
+    <t>The sentinel lymph node is the first lymph node to receive lymphatic drainage from a primary tumor. If it contains metastatic tumor this indicates that other lymph nodes may contain tumor.</t>
+  </si>
+  <si>
     <t>https://www.vision-zero-oncology.de/fhir/ValueSet/tnm-n-staging-type-loinc</t>
   </si>
   <si>
@@ -1758,6 +1771,166 @@
     <t>https://www.vision-zero-oncology.de/fhir/ValueSet/tnm-s-serum-tumor-markers-uicc</t>
   </si>
   <si>
+    <t>numberOfNodesAffected</t>
+  </si>
+  <si>
+    <t>Number of regional lymph nodes positive</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="21893-3"/&gt;
+    &lt;display value="Regional lymph nodes positive [#] Specimen"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>numberOfNodesExamined</t>
   </si>
   <si>
@@ -1769,166 +1942,6 @@
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="21894-1"/&gt;
     &lt;display value="Regional lymph nodes examined [#] Specimen"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].id</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x].code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>numberOfNodesAffected</t>
-  </si>
-  <si>
-    <t>Number of regional lymph nodes positive</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="21893-3"/&gt;
-    &lt;display value="Regional lymph nodes positive [#] Specimen"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2237,7 +2250,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO195"/>
+  <dimension ref="A1:AO196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15029,43 +15042,41 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C109" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>138</v>
+        <v>515</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15113,7 +15124,7 @@
         <v>82</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>80</v>
@@ -15122,7 +15133,7 @@
         <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>143</v>
@@ -15137,7 +15148,7 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
@@ -15148,42 +15159,42 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>82</v>
@@ -15208,11 +15219,13 @@
         <v>82</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X110" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Y110" t="s" s="2">
-        <v>514</v>
+        <v>82</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>82</v>
@@ -15230,34 +15243,34 @@
         <v>82</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15265,7 +15278,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15273,7 +15286,7 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>92</v>
@@ -15291,16 +15304,16 @@
         <v>190</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>82</v>
@@ -15329,7 +15342,7 @@
       </c>
       <c r="X111" s="2"/>
       <c r="Y111" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>82</v>
@@ -15347,10 +15360,10 @@
         <v>82</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>92</v>
@@ -15365,24 +15378,24 @@
         <v>82</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15402,22 +15415,22 @@
         <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>82</v>
@@ -15442,13 +15455,11 @@
         <v>82</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>320</v>
+        <v>519</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>82</v>
@@ -15466,7 +15477,7 @@
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>80</v>
@@ -15475,7 +15486,7 @@
         <v>92</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>104</v>
@@ -15484,35 +15495,35 @@
         <v>82</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>82</v>
@@ -15527,16 +15538,16 @@
         <v>190</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>82</v>
@@ -15564,10 +15575,10 @@
         <v>318</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>82</v>
@@ -15585,16 +15596,16 @@
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>104</v>
@@ -15603,28 +15614,28 @@
         <v>82</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15643,19 +15654,19 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>82</v>
@@ -15680,13 +15691,13 @@
         <v>82</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>82</v>
@@ -15704,7 +15715,7 @@
         <v>82</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>80</v>
@@ -15722,28 +15733,26 @@
         <v>82</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>82</v>
       </c>
@@ -15752,7 +15761,7 @@
         <v>80</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>82</v>
@@ -15761,22 +15770,22 @@
         <v>82</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>82</v>
@@ -15825,7 +15834,7 @@
         <v>82</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>80</v>
@@ -15846,10 +15855,10 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
@@ -15860,9 +15869,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>82</v>
       </c>
@@ -15880,19 +15891,23 @@
         <v>82</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>215</v>
+        <v>521</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>82</v>
       </c>
@@ -15940,19 +15955,19 @@
         <v>82</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>82</v>
@@ -15961,10 +15976,10 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
@@ -15975,7 +15990,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15986,7 +16001,7 @@
         <v>80</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>82</v>
@@ -15998,13 +16013,13 @@
         <v>82</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>493</v>
+        <v>215</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>494</v>
+        <v>216</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -16043,29 +16058,31 @@
         <v>82</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB117" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>82</v>
@@ -16077,7 +16094,7 @@
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
@@ -16090,9 +16107,7 @@
       <c r="A118" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="B118" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16101,7 +16116,7 @@
         <v>80</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>82</v>
@@ -16113,13 +16128,13 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>496</v>
+        <v>138</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16158,16 +16173,14 @@
         <v>82</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB118" s="2"/>
       <c r="AC118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AE118" t="s" s="2">
         <v>224</v>
@@ -16179,7 +16192,7 @@
         <v>81</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>143</v>
@@ -16208,7 +16221,7 @@
         <v>455</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>82</v>
@@ -16230,13 +16243,13 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16322,43 +16335,41 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B120" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="C120" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>393</v>
+        <v>512</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16406,7 +16417,7 @@
         <v>82</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>80</v>
@@ -16415,7 +16426,7 @@
         <v>81</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>143</v>
@@ -16430,7 +16441,7 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>82</v>
@@ -16441,42 +16452,42 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>82</v>
@@ -16501,11 +16512,13 @@
         <v>82</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X121" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Y121" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>82</v>
@@ -16523,34 +16536,34 @@
         <v>82</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16558,7 +16571,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16566,7 +16579,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>92</v>
@@ -16584,16 +16597,16 @@
         <v>190</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>82</v>
@@ -16622,7 +16635,7 @@
       </c>
       <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>82</v>
@@ -16640,10 +16653,10 @@
         <v>82</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>92</v>
@@ -16658,24 +16671,24 @@
         <v>82</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16695,22 +16708,22 @@
         <v>82</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>82</v>
@@ -16735,13 +16748,11 @@
         <v>82</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>320</v>
+        <v>524</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>82</v>
@@ -16759,7 +16770,7 @@
         <v>82</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>80</v>
@@ -16768,7 +16779,7 @@
         <v>92</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>104</v>
@@ -16777,35 +16788,35 @@
         <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>82</v>
@@ -16820,16 +16831,16 @@
         <v>190</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>82</v>
@@ -16857,10 +16868,10 @@
         <v>318</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>82</v>
@@ -16878,16 +16889,16 @@
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>104</v>
@@ -16896,28 +16907,28 @@
         <v>82</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16936,19 +16947,19 @@
         <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>82</v>
@@ -16973,13 +16984,13 @@
         <v>82</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>82</v>
@@ -16997,7 +17008,7 @@
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>80</v>
@@ -17015,28 +17026,26 @@
         <v>82</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
         <v>82</v>
       </c>
@@ -17045,7 +17054,7 @@
         <v>80</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>82</v>
@@ -17054,22 +17063,22 @@
         <v>82</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>82</v>
@@ -17118,7 +17127,7 @@
         <v>82</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>80</v>
@@ -17139,10 +17148,10 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>82</v>
@@ -17153,9 +17162,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B127" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="C127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17173,19 +17184,23 @@
         <v>82</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>215</v>
+        <v>526</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>82</v>
       </c>
@@ -17233,19 +17248,19 @@
         <v>82</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>82</v>
@@ -17254,10 +17269,10 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>82</v>
@@ -17268,18 +17283,18 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>82</v>
@@ -17291,17 +17306,15 @@
         <v>82</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>82</v>
@@ -17350,19 +17363,19 @@
         <v>82</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>82</v>
@@ -17385,11 +17398,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17402,26 +17415,24 @@
         <v>82</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N129" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>82</v>
       </c>
@@ -17469,7 +17480,7 @@
         <v>82</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>80</v>
@@ -17493,7 +17504,7 @@
         <v>82</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
@@ -17504,42 +17515,42 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>82</v>
@@ -17549,7 +17560,7 @@
         <v>82</v>
       </c>
       <c r="R130" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="S130" t="s" s="2">
         <v>82</v>
@@ -17564,13 +17575,13 @@
         <v>82</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>82</v>
@@ -17588,34 +17599,34 @@
         <v>82</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>82</v>
@@ -17623,7 +17634,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17631,7 +17642,7 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>92</v>
@@ -17649,16 +17660,16 @@
         <v>190</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>82</v>
@@ -17668,7 +17679,7 @@
         <v>82</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>82</v>
+        <v>527</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>82</v>
@@ -17683,11 +17694,13 @@
         <v>82</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X131" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Y131" t="s" s="2">
-        <v>524</v>
+        <v>207</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>82</v>
@@ -17705,10 +17718,10 @@
         <v>82</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>92</v>
@@ -17723,24 +17736,24 @@
         <v>82</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17760,22 +17773,22 @@
         <v>82</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>82</v>
@@ -17800,13 +17813,11 @@
         <v>82</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X132" s="2"/>
       <c r="Y132" t="s" s="2">
-        <v>320</v>
+        <v>528</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>82</v>
@@ -17824,7 +17835,7 @@
         <v>82</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>80</v>
@@ -17833,7 +17844,7 @@
         <v>92</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>104</v>
@@ -17842,35 +17853,35 @@
         <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>82</v>
@@ -17885,16 +17896,16 @@
         <v>190</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>82</v>
@@ -17922,10 +17933,10 @@
         <v>318</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>82</v>
@@ -17943,16 +17954,16 @@
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>104</v>
@@ -17961,28 +17972,28 @@
         <v>82</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18001,19 +18012,19 @@
         <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>82</v>
@@ -18038,13 +18049,13 @@
         <v>82</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>82</v>
@@ -18062,7 +18073,7 @@
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>80</v>
@@ -18080,28 +18091,26 @@
         <v>82</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
         <v>82</v>
       </c>
@@ -18110,7 +18119,7 @@
         <v>80</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>82</v>
@@ -18119,22 +18128,22 @@
         <v>82</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>82</v>
@@ -18183,7 +18192,7 @@
         <v>82</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>80</v>
@@ -18204,10 +18213,10 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
@@ -18218,9 +18227,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B136" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="C136" t="s" s="2">
         <v>82</v>
       </c>
@@ -18238,19 +18249,23 @@
         <v>82</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>215</v>
+        <v>530</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O136" t="s" s="2">
         <v>82</v>
       </c>
@@ -18298,19 +18313,19 @@
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>82</v>
@@ -18319,10 +18334,10 @@
         <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
@@ -18333,18 +18348,18 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>82</v>
@@ -18356,17 +18371,15 @@
         <v>82</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>82</v>
@@ -18415,19 +18428,19 @@
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>82</v>
@@ -18450,11 +18463,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18467,26 +18480,24 @@
         <v>82</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N138" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>82</v>
       </c>
@@ -18534,7 +18545,7 @@
         <v>82</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>80</v>
@@ -18558,7 +18569,7 @@
         <v>82</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>82</v>
@@ -18569,42 +18580,42 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>82</v>
@@ -18614,7 +18625,7 @@
         <v>82</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>82</v>
@@ -18629,13 +18640,13 @@
         <v>82</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>82</v>
@@ -18653,34 +18664,34 @@
         <v>82</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -18688,7 +18699,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18696,7 +18707,7 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>92</v>
@@ -18714,16 +18725,16 @@
         <v>190</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>82</v>
@@ -18733,7 +18744,7 @@
         <v>82</v>
       </c>
       <c r="R140" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="S140" t="s" s="2">
         <v>82</v>
@@ -18748,11 +18759,13 @@
         <v>82</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X140" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Y140" t="s" s="2">
-        <v>528</v>
+        <v>207</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>82</v>
@@ -18770,10 +18783,10 @@
         <v>82</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>92</v>
@@ -18788,24 +18801,24 @@
         <v>82</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18825,22 +18838,22 @@
         <v>82</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>82</v>
@@ -18865,13 +18878,11 @@
         <v>82</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X141" s="2"/>
       <c r="Y141" t="s" s="2">
-        <v>320</v>
+        <v>532</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>82</v>
@@ -18889,7 +18900,7 @@
         <v>82</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>80</v>
@@ -18898,7 +18909,7 @@
         <v>92</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>104</v>
@@ -18907,35 +18918,35 @@
         <v>82</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>82</v>
@@ -18950,16 +18961,16 @@
         <v>190</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>82</v>
@@ -18987,10 +18998,10 @@
         <v>318</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>82</v>
@@ -19008,16 +19019,16 @@
         <v>82</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>104</v>
@@ -19026,28 +19037,28 @@
         <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19066,19 +19077,19 @@
         <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>82</v>
@@ -19103,13 +19114,13 @@
         <v>82</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>82</v>
@@ -19127,7 +19138,7 @@
         <v>82</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>80</v>
@@ -19145,28 +19156,26 @@
         <v>82</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
         <v>82</v>
       </c>
@@ -19175,7 +19184,7 @@
         <v>80</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>82</v>
@@ -19184,22 +19193,22 @@
         <v>82</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>530</v>
+        <v>473</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>82</v>
@@ -19248,7 +19257,7 @@
         <v>82</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>80</v>
@@ -19269,10 +19278,10 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>82</v>
@@ -19283,9 +19292,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="C145" t="s" s="2">
         <v>82</v>
       </c>
@@ -19303,19 +19314,23 @@
         <v>82</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>215</v>
+        <v>534</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>82</v>
       </c>
@@ -19363,19 +19378,19 @@
         <v>82</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>82</v>
@@ -19384,10 +19399,10 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
@@ -19398,18 +19413,18 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>82</v>
@@ -19421,17 +19436,15 @@
         <v>82</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
         <v>82</v>
@@ -19480,19 +19493,19 @@
         <v>82</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>82</v>
@@ -19515,11 +19528,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19532,26 +19545,24 @@
         <v>82</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="M147" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N147" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>82</v>
       </c>
@@ -19599,7 +19610,7 @@
         <v>82</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>80</v>
@@ -19623,7 +19634,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -19634,42 +19645,42 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F148" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>82</v>
@@ -19679,7 +19690,7 @@
         <v>82</v>
       </c>
       <c r="R148" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>82</v>
@@ -19694,13 +19705,13 @@
         <v>82</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>82</v>
@@ -19718,34 +19729,34 @@
         <v>82</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>82</v>
@@ -19753,7 +19764,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19761,7 +19772,7 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>92</v>
@@ -19779,16 +19790,16 @@
         <v>190</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>82</v>
@@ -19798,7 +19809,7 @@
         <v>82</v>
       </c>
       <c r="R149" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>82</v>
@@ -19813,11 +19824,13 @@
         <v>82</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X149" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Y149" t="s" s="2">
-        <v>532</v>
+        <v>207</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>82</v>
@@ -19835,10 +19848,10 @@
         <v>82</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>92</v>
@@ -19853,24 +19866,24 @@
         <v>82</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19890,22 +19903,22 @@
         <v>82</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>82</v>
@@ -19930,13 +19943,11 @@
         <v>82</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X150" s="2"/>
       <c r="Y150" t="s" s="2">
-        <v>320</v>
+        <v>536</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>82</v>
@@ -19954,7 +19965,7 @@
         <v>82</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>80</v>
@@ -19963,7 +19974,7 @@
         <v>92</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>104</v>
@@ -19972,35 +19983,35 @@
         <v>82</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>82</v>
@@ -20015,16 +20026,16 @@
         <v>190</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>82</v>
@@ -20052,10 +20063,10 @@
         <v>318</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>82</v>
@@ -20073,16 +20084,16 @@
         <v>82</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>104</v>
@@ -20091,28 +20102,28 @@
         <v>82</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20131,19 +20142,19 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>82</v>
@@ -20168,13 +20179,13 @@
         <v>82</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>82</v>
@@ -20192,7 +20203,7 @@
         <v>82</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>80</v>
@@ -20210,28 +20221,26 @@
         <v>82</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
         <v>82</v>
       </c>
@@ -20240,7 +20249,7 @@
         <v>80</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>82</v>
@@ -20249,22 +20258,22 @@
         <v>82</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>534</v>
+        <v>473</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>82</v>
@@ -20313,7 +20322,7 @@
         <v>82</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>80</v>
@@ -20334,10 +20343,10 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>82</v>
@@ -20348,9 +20357,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="C154" t="s" s="2">
         <v>82</v>
       </c>
@@ -20368,19 +20379,23 @@
         <v>82</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>215</v>
+        <v>538</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O154" t="s" s="2">
         <v>82</v>
       </c>
@@ -20428,19 +20443,19 @@
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>82</v>
@@ -20449,10 +20464,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -20463,18 +20478,18 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>82</v>
@@ -20486,17 +20501,15 @@
         <v>82</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
         <v>82</v>
@@ -20545,19 +20558,19 @@
         <v>82</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>82</v>
@@ -20580,11 +20593,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20597,26 +20610,24 @@
         <v>82</v>
       </c>
       <c r="H156" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I156" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="M156" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N156" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
         <v>82</v>
       </c>
@@ -20664,7 +20675,7 @@
         <v>82</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>80</v>
@@ -20688,7 +20699,7 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
@@ -20699,42 +20710,42 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>82</v>
@@ -20744,7 +20755,7 @@
         <v>82</v>
       </c>
       <c r="R157" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>82</v>
@@ -20759,13 +20770,13 @@
         <v>82</v>
       </c>
       <c r="W157" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>82</v>
@@ -20783,34 +20794,34 @@
         <v>82</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>82</v>
@@ -20818,7 +20829,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20826,7 +20837,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>92</v>
@@ -20844,16 +20855,16 @@
         <v>190</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>82</v>
@@ -20863,7 +20874,7 @@
         <v>82</v>
       </c>
       <c r="R158" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>82</v>
@@ -20878,11 +20889,13 @@
         <v>82</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X158" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="Y158" t="s" s="2">
-        <v>536</v>
+        <v>207</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>82</v>
@@ -20900,10 +20913,10 @@
         <v>82</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>92</v>
@@ -20918,24 +20931,24 @@
         <v>82</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20955,22 +20968,22 @@
         <v>82</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J159" t="s" s="2">
         <v>190</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>82</v>
@@ -20995,13 +21008,11 @@
         <v>82</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>82</v>
@@ -21019,7 +21030,7 @@
         <v>82</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>80</v>
@@ -21028,7 +21039,7 @@
         <v>92</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>104</v>
@@ -21037,35 +21048,35 @@
         <v>82</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>82</v>
@@ -21080,16 +21091,16 @@
         <v>190</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>82</v>
@@ -21117,10 +21128,10 @@
         <v>318</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>82</v>
@@ -21138,16 +21149,16 @@
         <v>82</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>104</v>
@@ -21156,28 +21167,28 @@
         <v>82</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21196,19 +21207,19 @@
         <v>82</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>82</v>
@@ -21233,13 +21244,13 @@
         <v>82</v>
       </c>
       <c r="W161" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X161" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>82</v>
@@ -21257,7 +21268,7 @@
         <v>82</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>80</v>
@@ -21275,28 +21286,26 @@
         <v>82</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
         <v>82</v>
       </c>
@@ -21305,7 +21314,7 @@
         <v>80</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>82</v>
@@ -21314,22 +21323,22 @@
         <v>82</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>538</v>
+        <v>473</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>82</v>
@@ -21378,7 +21387,7 @@
         <v>82</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>80</v>
@@ -21399,10 +21408,10 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -21413,9 +21422,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B163" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="C163" t="s" s="2">
         <v>82</v>
       </c>
@@ -21433,19 +21444,23 @@
         <v>82</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>215</v>
+        <v>542</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N163" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O163" t="s" s="2">
         <v>82</v>
       </c>
@@ -21493,19 +21508,19 @@
         <v>82</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>82</v>
@@ -21514,10 +21529,10 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>82</v>
@@ -21528,18 +21543,18 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>82</v>
@@ -21551,17 +21566,15 @@
         <v>82</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>82</v>
@@ -21610,19 +21623,19 @@
         <v>82</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>82</v>
@@ -21645,11 +21658,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21662,26 +21675,24 @@
         <v>82</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N165" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
         <v>82</v>
       </c>
@@ -21729,7 +21740,7 @@
         <v>82</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>80</v>
@@ -21753,7 +21764,7 @@
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
@@ -21764,42 +21775,42 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>82</v>
@@ -21809,7 +21820,7 @@
         <v>82</v>
       </c>
       <c r="R166" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>82</v>
@@ -21824,13 +21835,13 @@
         <v>82</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>82</v>
@@ -21848,34 +21859,34 @@
         <v>82</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>82</v>
@@ -21883,7 +21894,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21891,7 +21902,7 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>92</v>
@@ -21906,19 +21917,19 @@
         <v>93</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>540</v>
+        <v>190</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>82</v>
@@ -21928,7 +21939,7 @@
         <v>82</v>
       </c>
       <c r="R167" t="s" s="2">
-        <v>82</v>
+        <v>543</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>82</v>
@@ -21943,32 +21954,34 @@
         <v>82</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA167" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AB167" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>92</v>
@@ -21983,28 +21996,26 @@
         <v>82</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="B168" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
         <v>82</v>
       </c>
@@ -22025,7 +22036,7 @@
         <v>93</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>464</v>
@@ -22074,16 +22085,14 @@
         <v>82</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="AB168" s="2"/>
       <c r="AC168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AE168" t="s" s="2">
         <v>462</v>
@@ -22121,9 +22130,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B169" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="C169" t="s" s="2">
         <v>82</v>
       </c>
@@ -22141,19 +22152,23 @@
         <v>82</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O169" t="s" s="2">
         <v>82</v>
       </c>
@@ -22201,7 +22216,7 @@
         <v>82</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>80</v>
@@ -22213,41 +22228,41 @@
         <v>82</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F170" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>82</v>
@@ -22259,17 +22274,15 @@
         <v>82</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>82</v>
@@ -22306,31 +22319,31 @@
         <v>82</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AC170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD170" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>82</v>
@@ -22353,18 +22366,18 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>82</v>
@@ -22373,23 +22386,21 @@
         <v>82</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>547</v>
+        <v>138</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>548</v>
+        <v>139</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>549</v>
+        <v>220</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
         <v>82</v>
       </c>
@@ -22425,31 +22436,31 @@
         <v>82</v>
       </c>
       <c r="AA171" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AB171" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AC171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>552</v>
+        <v>224</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>82</v>
@@ -22458,10 +22469,10 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>554</v>
+        <v>218</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>82</v>
@@ -22472,7 +22483,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22489,74 +22500,74 @@
         <v>82</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>112</v>
+        <v>551</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE172" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Q172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>80</v>
@@ -22577,10 +22588,10 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>82</v>
@@ -22591,7 +22602,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22608,28 +22619,30 @@
         <v>82</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="P173" s="2"/>
+      <c r="P173" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="Q173" t="s" s="2">
         <v>82</v>
       </c>
@@ -22649,13 +22662,13 @@
         <v>82</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>82</v>
@@ -22673,7 +22686,7 @@
         <v>82</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>80</v>
@@ -22694,10 +22707,10 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>82</v>
@@ -22708,7 +22721,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22731,17 +22744,17 @@
         <v>93</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>82</v>
@@ -22751,7 +22764,7 @@
         <v>82</v>
       </c>
       <c r="R174" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>82</v>
@@ -22790,7 +22803,7 @@
         <v>82</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>80</v>
@@ -22799,7 +22812,7 @@
         <v>92</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>104</v>
@@ -22811,10 +22824,10 @@
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -22825,7 +22838,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22848,19 +22861,17 @@
         <v>93</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>82</v>
@@ -22870,7 +22881,7 @@
         <v>82</v>
       </c>
       <c r="R175" t="s" s="2">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>82</v>
@@ -22909,7 +22920,7 @@
         <v>82</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>80</v>
@@ -22918,7 +22929,7 @@
         <v>92</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AI175" t="s" s="2">
         <v>104</v>
@@ -22930,10 +22941,10 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -22944,7 +22955,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>467</v>
+        <v>584</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22964,22 +22975,22 @@
         <v>82</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>468</v>
+        <v>585</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>470</v>
+        <v>587</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>317</v>
+        <v>588</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>82</v>
@@ -22989,7 +23000,7 @@
         <v>82</v>
       </c>
       <c r="R176" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>82</v>
@@ -23004,13 +23015,13 @@
         <v>82</v>
       </c>
       <c r="W176" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>82</v>
@@ -23028,7 +23039,7 @@
         <v>82</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>80</v>
@@ -23037,7 +23048,7 @@
         <v>92</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI176" t="s" s="2">
         <v>104</v>
@@ -23049,10 +23060,10 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>135</v>
+        <v>574</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>322</v>
+        <v>590</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23063,18 +23074,18 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>82</v>
@@ -23089,16 +23100,16 @@
         <v>190</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>82</v>
@@ -23126,10 +23137,10 @@
         <v>318</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>82</v>
@@ -23147,16 +23158,16 @@
         <v>82</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI177" t="s" s="2">
         <v>104</v>
@@ -23165,28 +23176,28 @@
         <v>82</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23205,19 +23216,19 @@
         <v>82</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>82</v>
@@ -23242,13 +23253,13 @@
         <v>82</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>82</v>
@@ -23266,7 +23277,7 @@
         <v>82</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>80</v>
@@ -23284,28 +23295,26 @@
         <v>82</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
         <v>82</v>
       </c>
@@ -23314,7 +23323,7 @@
         <v>80</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>82</v>
@@ -23323,22 +23332,22 @@
         <v>82</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>588</v>
+        <v>473</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>82</v>
@@ -23387,7 +23396,7 @@
         <v>82</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>80</v>
@@ -23408,10 +23417,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -23422,9 +23431,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B180" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="C180" t="s" s="2">
         <v>82</v>
       </c>
@@ -23442,19 +23453,23 @@
         <v>82</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>215</v>
+        <v>592</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M180" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O180" t="s" s="2">
         <v>82</v>
       </c>
@@ -23502,19 +23517,19 @@
         <v>82</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>217</v>
+        <v>446</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>82</v>
@@ -23523,10 +23538,10 @@
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>82</v>
@@ -23537,18 +23552,18 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>82</v>
@@ -23560,17 +23575,15 @@
         <v>82</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>82</v>
@@ -23619,19 +23632,19 @@
         <v>82</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>82</v>
@@ -23654,11 +23667,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23671,26 +23684,24 @@
         <v>82</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N182" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>82</v>
       </c>
@@ -23738,7 +23749,7 @@
         <v>82</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>395</v>
+        <v>224</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>80</v>
@@ -23762,7 +23773,7 @@
         <v>82</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>82</v>
@@ -23773,42 +23784,42 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>460</v>
+        <v>141</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>82</v>
@@ -23818,7 +23829,7 @@
         <v>82</v>
       </c>
       <c r="R183" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>82</v>
@@ -23833,13 +23844,13 @@
         <v>82</v>
       </c>
       <c r="W183" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z183" t="s" s="2">
         <v>82</v>
@@ -23857,34 +23868,34 @@
         <v>82</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>82</v>
@@ -23892,7 +23903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23900,7 +23911,7 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>92</v>
@@ -23915,19 +23926,19 @@
         <v>93</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>540</v>
+        <v>190</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>304</v>
+        <v>459</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>82</v>
@@ -23937,7 +23948,7 @@
         <v>82</v>
       </c>
       <c r="R184" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>82</v>
@@ -23952,32 +23963,34 @@
         <v>82</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA184" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AB184" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB184" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD184" t="s" s="2">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>92</v>
@@ -23992,28 +24005,26 @@
         <v>82</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="B185" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
         <v>82</v>
       </c>
@@ -24034,7 +24045,7 @@
         <v>93</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>464</v>
@@ -24083,16 +24094,14 @@
         <v>82</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB185" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="AB185" s="2"/>
       <c r="AC185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD185" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="AE185" t="s" s="2">
         <v>462</v>
@@ -24130,9 +24139,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B186" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="C186" t="s" s="2">
         <v>82</v>
       </c>
@@ -24150,19 +24161,23 @@
         <v>82</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M186" s="2"/>
-      <c r="N186" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O186" t="s" s="2">
         <v>82</v>
       </c>
@@ -24210,7 +24225,7 @@
         <v>82</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>80</v>
@@ -24222,41 +24237,41 @@
         <v>82</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO186" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>82</v>
@@ -24268,17 +24283,15 @@
         <v>82</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
         <v>82</v>
@@ -24315,31 +24328,31 @@
         <v>82</v>
       </c>
       <c r="AA187" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AB187" t="s" s="2">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="AC187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD187" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>82</v>
@@ -24362,18 +24375,18 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>82</v>
@@ -24382,23 +24395,21 @@
         <v>82</v>
       </c>
       <c r="I188" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>547</v>
+        <v>138</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>548</v>
+        <v>139</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>549</v>
+        <v>220</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
         <v>82</v>
       </c>
@@ -24434,31 +24445,31 @@
         <v>82</v>
       </c>
       <c r="AA188" t="s" s="2">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AC188" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>552</v>
+        <v>224</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>82</v>
@@ -24467,10 +24478,10 @@
         <v>82</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>553</v>
+        <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>554</v>
+        <v>218</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>82</v>
@@ -24481,7 +24492,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24498,74 +24509,74 @@
         <v>82</v>
       </c>
       <c r="H189" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I189" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>112</v>
+        <v>551</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L189" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P189" s="2"/>
+      <c r="Q189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD189" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE189" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M189" s="2"/>
-      <c r="N189" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P189" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Q189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>80</v>
@@ -24586,10 +24597,10 @@
         <v>82</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>82</v>
@@ -24600,7 +24611,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24617,28 +24628,30 @@
         <v>82</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="P190" s="2"/>
+      <c r="P190" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="Q190" t="s" s="2">
         <v>82</v>
       </c>
@@ -24658,13 +24671,13 @@
         <v>82</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>82</v>
@@ -24682,7 +24695,7 @@
         <v>82</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>80</v>
@@ -24703,10 +24716,10 @@
         <v>82</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -24717,7 +24730,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24740,17 +24753,17 @@
         <v>93</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>82</v>
@@ -24760,7 +24773,7 @@
         <v>82</v>
       </c>
       <c r="R191" t="s" s="2">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>82</v>
@@ -24799,7 +24812,7 @@
         <v>82</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>80</v>
@@ -24808,7 +24821,7 @@
         <v>92</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="AI191" t="s" s="2">
         <v>104</v>
@@ -24820,10 +24833,10 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
@@ -24834,7 +24847,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24857,19 +24870,17 @@
         <v>93</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>82</v>
@@ -24879,7 +24890,7 @@
         <v>82</v>
       </c>
       <c r="R192" t="s" s="2">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>82</v>
@@ -24918,7 +24929,7 @@
         <v>82</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>80</v>
@@ -24927,7 +24938,7 @@
         <v>92</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>82</v>
+        <v>582</v>
       </c>
       <c r="AI192" t="s" s="2">
         <v>104</v>
@@ -24939,10 +24950,10 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>
@@ -24953,7 +24964,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>467</v>
+        <v>584</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24973,22 +24984,22 @@
         <v>82</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>468</v>
+        <v>585</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>469</v>
+        <v>586</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>470</v>
+        <v>587</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>317</v>
+        <v>588</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>82</v>
@@ -24998,7 +25009,7 @@
         <v>82</v>
       </c>
       <c r="R193" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>82</v>
@@ -25013,13 +25024,13 @@
         <v>82</v>
       </c>
       <c r="W193" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>82</v>
@@ -25037,7 +25048,7 @@
         <v>82</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>467</v>
+        <v>589</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>80</v>
@@ -25046,7 +25057,7 @@
         <v>92</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="AI193" t="s" s="2">
         <v>104</v>
@@ -25058,10 +25069,10 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>135</v>
+        <v>574</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>322</v>
+        <v>590</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>82</v>
@@ -25072,18 +25083,18 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>82</v>
@@ -25098,16 +25109,16 @@
         <v>190</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>82</v>
@@ -25135,10 +25146,10 @@
         <v>318</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>82</v>
@@ -25156,16 +25167,16 @@
         <v>82</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI194" t="s" s="2">
         <v>104</v>
@@ -25174,28 +25185,28 @@
         <v>82</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -25214,19 +25225,19 @@
         <v>82</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>82</v>
@@ -25251,13 +25262,13 @@
         <v>82</v>
       </c>
       <c r="W195" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>82</v>
@@ -25275,7 +25286,7 @@
         <v>82</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>80</v>
@@ -25293,18 +25304,137 @@
         <v>82</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AL195" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM195" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN195" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO195" t="s" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL196" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM195" t="s" s="2">
+      <c r="AM196" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN195" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO195" t="s" s="2">
+      <c r="AN196" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO196" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7429" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7429" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for the tumor classification using TNM stage group (I, II, III, or IV) or TNM staging elements (T, N, and M).</t>
+    <t>Profile for the tumor classification using TNM stage groups (I, II, III, or IV) and TNM staging elements (T, N, and M).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1402,6 +1402,12 @@
   <si>
     <t xml:space="preserve">Reference(https://www.vision-zero-oncology.de/fhir/StructureDefinition/uicc-tnm-r-classification)
 </t>
+  </si>
+  <si>
+    <t>Residual Tumor (R) Classification</t>
+  </si>
+  <si>
+    <t>The absence or presence of residual tumour after treatment is described by the symbol R.</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -7874,10 +7880,10 @@
         <v>442</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>437</v>
@@ -7965,7 +7971,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7988,16 +7994,16 @@
         <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8047,7 +8053,7 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>80</v>
@@ -8071,7 +8077,7 @@
         <v>439</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -8082,7 +8088,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8108,16 +8114,16 @@
         <v>381</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>82</v>
@@ -8154,7 +8160,7 @@
         <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
@@ -8164,7 +8170,7 @@
         <v>223</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>80</v>
@@ -8185,10 +8191,10 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8199,7 +8205,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8314,7 +8320,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8431,7 +8437,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8550,7 +8556,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8576,13 +8582,13 @@
         <v>190</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>204</v>
@@ -8634,7 +8640,7 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>92</v>
@@ -8652,7 +8658,7 @@
         <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>210</v>
@@ -8669,7 +8675,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8692,16 +8698,16 @@
         <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>306</v>
@@ -8753,7 +8759,7 @@
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>80</v>
@@ -8771,7 +8777,7 @@
         <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>310</v>
@@ -8788,7 +8794,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8814,13 +8820,13 @@
         <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>317</v>
@@ -8872,7 +8878,7 @@
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>80</v>
@@ -8907,7 +8913,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8991,7 +8997,7 @@
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>80</v>
@@ -9026,7 +9032,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9052,10 +9058,10 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>384</v>
@@ -9110,7 +9116,7 @@
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>80</v>
@@ -9145,10 +9151,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>82</v>
@@ -9173,16 +9179,16 @@
         <v>381</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>82</v>
@@ -9231,7 +9237,7 @@
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>80</v>
@@ -9252,10 +9258,10 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9266,7 +9272,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9381,7 +9387,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9498,7 +9504,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9617,7 +9623,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9643,13 +9649,13 @@
         <v>190</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>204</v>
@@ -9662,7 +9668,7 @@
         <v>82</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -9701,7 +9707,7 @@
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>92</v>
@@ -9719,7 +9725,7 @@
         <v>82</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>210</v>
@@ -9736,7 +9742,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9762,13 +9768,13 @@
         <v>190</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>306</v>
@@ -9781,7 +9787,7 @@
         <v>82</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>82</v>
@@ -9820,7 +9826,7 @@
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>80</v>
@@ -9838,7 +9844,7 @@
         <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>310</v>
@@ -9855,7 +9861,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9881,13 +9887,13 @@
         <v>190</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>317</v>
@@ -9939,7 +9945,7 @@
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -9974,7 +9980,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10058,7 +10064,7 @@
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
@@ -10093,7 +10099,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10119,10 +10125,10 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>384</v>
@@ -10177,7 +10183,7 @@
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
@@ -10212,10 +10218,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>82</v>
@@ -10240,16 +10246,16 @@
         <v>381</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>82</v>
@@ -10298,7 +10304,7 @@
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>80</v>
@@ -10319,10 +10325,10 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10333,7 +10339,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10448,7 +10454,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10565,7 +10571,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10684,7 +10690,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10710,13 +10716,13 @@
         <v>190</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>204</v>
@@ -10729,7 +10735,7 @@
         <v>82</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -10768,7 +10774,7 @@
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>92</v>
@@ -10786,7 +10792,7 @@
         <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>210</v>
@@ -10803,7 +10809,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10829,13 +10835,13 @@
         <v>190</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>306</v>
@@ -10848,7 +10854,7 @@
         <v>82</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>82</v>
@@ -10887,7 +10893,7 @@
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>80</v>
@@ -10905,7 +10911,7 @@
         <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>310</v>
@@ -10922,7 +10928,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10948,13 +10954,13 @@
         <v>190</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>317</v>
@@ -11006,7 +11012,7 @@
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -11041,7 +11047,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11125,7 +11131,7 @@
         <v>82</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>80</v>
@@ -11160,7 +11166,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11186,10 +11192,10 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>384</v>
@@ -11244,7 +11250,7 @@
         <v>82</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -11279,10 +11285,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>82</v>
@@ -11307,16 +11313,16 @@
         <v>381</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>82</v>
@@ -11365,7 +11371,7 @@
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
@@ -11386,10 +11392,10 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11400,7 +11406,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11515,7 +11521,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11632,7 +11638,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11751,7 +11757,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11777,13 +11783,13 @@
         <v>190</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>204</v>
@@ -11796,7 +11802,7 @@
         <v>82</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>82</v>
@@ -11835,7 +11841,7 @@
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>92</v>
@@ -11853,7 +11859,7 @@
         <v>82</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>210</v>
@@ -11870,7 +11876,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11896,13 +11902,13 @@
         <v>190</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>306</v>
@@ -11915,7 +11921,7 @@
         <v>82</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -11954,7 +11960,7 @@
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
@@ -11972,7 +11978,7 @@
         <v>82</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>310</v>
@@ -11989,7 +11995,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12015,13 +12021,13 @@
         <v>190</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>317</v>
@@ -12073,7 +12079,7 @@
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
@@ -12108,7 +12114,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12192,7 +12198,7 @@
         <v>82</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>80</v>
@@ -12227,7 +12233,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12253,10 +12259,10 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>384</v>
@@ -12311,7 +12317,7 @@
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>80</v>
@@ -12346,10 +12352,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>82</v>
@@ -12374,16 +12380,16 @@
         <v>381</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>82</v>
@@ -12432,7 +12438,7 @@
         <v>82</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -12453,10 +12459,10 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12467,7 +12473,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12582,7 +12588,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12608,10 +12614,10 @@
         <v>138</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12695,10 +12701,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>82</v>
@@ -12720,13 +12726,13 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12786,7 +12792,7 @@
         <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>143</v>
@@ -12812,7 +12818,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12931,7 +12937,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12957,13 +12963,13 @@
         <v>190</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>204</v>
@@ -12995,7 +13001,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>82</v>
@@ -13013,7 +13019,7 @@
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>92</v>
@@ -13031,7 +13037,7 @@
         <v>82</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>210</v>
@@ -13048,7 +13054,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13074,13 +13080,13 @@
         <v>190</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>306</v>
@@ -13112,7 +13118,7 @@
       </c>
       <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>82</v>
@@ -13130,7 +13136,7 @@
         <v>82</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>80</v>
@@ -13148,7 +13154,7 @@
         <v>82</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>310</v>
@@ -13165,7 +13171,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13191,13 +13197,13 @@
         <v>190</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>317</v>
@@ -13249,7 +13255,7 @@
         <v>82</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>80</v>
@@ -13284,7 +13290,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13368,7 +13374,7 @@
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>80</v>
@@ -13403,7 +13409,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13429,10 +13435,10 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>384</v>
@@ -13487,7 +13493,7 @@
         <v>82</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>80</v>
@@ -13522,10 +13528,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>82</v>
@@ -13550,16 +13556,16 @@
         <v>381</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>82</v>
@@ -13608,7 +13614,7 @@
         <v>82</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>80</v>
@@ -13629,10 +13635,10 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13643,7 +13649,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13758,7 +13764,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13875,7 +13881,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13994,7 +14000,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14020,13 +14026,13 @@
         <v>190</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>204</v>
@@ -14039,7 +14045,7 @@
         <v>82</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>82</v>
@@ -14078,7 +14084,7 @@
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>92</v>
@@ -14096,7 +14102,7 @@
         <v>82</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>210</v>
@@ -14113,7 +14119,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14139,13 +14145,13 @@
         <v>190</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>306</v>
@@ -14177,7 +14183,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>82</v>
@@ -14195,7 +14201,7 @@
         <v>82</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>80</v>
@@ -14213,7 +14219,7 @@
         <v>82</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>310</v>
@@ -14230,7 +14236,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14256,13 +14262,13 @@
         <v>190</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>317</v>
@@ -14314,7 +14320,7 @@
         <v>82</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>80</v>
@@ -14349,7 +14355,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14433,7 +14439,7 @@
         <v>82</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>80</v>
@@ -14468,7 +14474,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14494,10 +14500,10 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>384</v>
@@ -14552,7 +14558,7 @@
         <v>82</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>80</v>
@@ -14587,10 +14593,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>82</v>
@@ -14615,16 +14621,16 @@
         <v>381</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>82</v>
@@ -14673,7 +14679,7 @@
         <v>82</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>80</v>
@@ -14694,10 +14700,10 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>82</v>
@@ -14708,7 +14714,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14823,7 +14829,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14849,10 +14855,10 @@
         <v>138</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14936,10 +14942,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>82</v>
@@ -14961,13 +14967,13 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -15027,7 +15033,7 @@
         <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>143</v>
@@ -15053,10 +15059,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>82</v>
@@ -15078,13 +15084,13 @@
         <v>82</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -15144,7 +15150,7 @@
         <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>143</v>
@@ -15170,10 +15176,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>82</v>
@@ -15195,13 +15201,13 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15261,7 +15267,7 @@
         <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>143</v>
@@ -15287,7 +15293,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15406,7 +15412,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15432,13 +15438,13 @@
         <v>190</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>204</v>
@@ -15470,7 +15476,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>82</v>
@@ -15488,7 +15494,7 @@
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>92</v>
@@ -15506,7 +15512,7 @@
         <v>82</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>210</v>
@@ -15523,7 +15529,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15549,13 +15555,13 @@
         <v>190</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>306</v>
@@ -15587,7 +15593,7 @@
       </c>
       <c r="X113" s="2"/>
       <c r="Y113" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>82</v>
@@ -15605,7 +15611,7 @@
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>80</v>
@@ -15623,7 +15629,7 @@
         <v>82</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>310</v>
@@ -15640,7 +15646,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15666,13 +15672,13 @@
         <v>190</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>317</v>
@@ -15724,7 +15730,7 @@
         <v>82</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>80</v>
@@ -15759,7 +15765,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15843,7 +15849,7 @@
         <v>82</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>80</v>
@@ -15878,7 +15884,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15904,10 +15910,10 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>384</v>
@@ -15962,7 +15968,7 @@
         <v>82</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>80</v>
@@ -15997,10 +16003,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>82</v>
@@ -16025,16 +16031,16 @@
         <v>381</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>82</v>
@@ -16083,7 +16089,7 @@
         <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>80</v>
@@ -16104,10 +16110,10 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
@@ -16118,7 +16124,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16233,7 +16239,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16259,10 +16265,10 @@
         <v>138</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16346,10 +16352,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>82</v>
@@ -16371,13 +16377,13 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16437,7 +16443,7 @@
         <v>81</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>143</v>
@@ -16463,10 +16469,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>82</v>
@@ -16488,13 +16494,13 @@
         <v>82</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16554,7 +16560,7 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>143</v>
@@ -16580,7 +16586,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16699,7 +16705,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16725,13 +16731,13 @@
         <v>190</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>204</v>
@@ -16763,7 +16769,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>82</v>
@@ -16781,7 +16787,7 @@
         <v>82</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>92</v>
@@ -16799,7 +16805,7 @@
         <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>210</v>
@@ -16816,7 +16822,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16842,13 +16848,13 @@
         <v>190</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>306</v>
@@ -16880,7 +16886,7 @@
       </c>
       <c r="X124" s="2"/>
       <c r="Y124" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>82</v>
@@ -16898,7 +16904,7 @@
         <v>82</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>80</v>
@@ -16916,7 +16922,7 @@
         <v>82</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>310</v>
@@ -16933,7 +16939,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16959,13 +16965,13 @@
         <v>190</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>317</v>
@@ -17017,7 +17023,7 @@
         <v>82</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>80</v>
@@ -17052,7 +17058,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17136,7 +17142,7 @@
         <v>82</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>80</v>
@@ -17171,7 +17177,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17197,10 +17203,10 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>384</v>
@@ -17255,7 +17261,7 @@
         <v>82</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>80</v>
@@ -17290,10 +17296,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>82</v>
@@ -17318,16 +17324,16 @@
         <v>381</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>82</v>
@@ -17376,7 +17382,7 @@
         <v>82</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>80</v>
@@ -17397,10 +17403,10 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>82</v>
@@ -17411,7 +17417,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17526,7 +17532,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17643,7 +17649,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17762,7 +17768,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17788,13 +17794,13 @@
         <v>190</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>204</v>
@@ -17807,7 +17813,7 @@
         <v>82</v>
       </c>
       <c r="R132" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="S132" t="s" s="2">
         <v>82</v>
@@ -17846,7 +17852,7 @@
         <v>82</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>92</v>
@@ -17864,7 +17870,7 @@
         <v>82</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>210</v>
@@ -17881,7 +17887,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17907,13 +17913,13 @@
         <v>190</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>306</v>
@@ -17945,7 +17951,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>82</v>
@@ -17963,7 +17969,7 @@
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>80</v>
@@ -17981,7 +17987,7 @@
         <v>82</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>310</v>
@@ -17998,7 +18004,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18024,13 +18030,13 @@
         <v>190</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>317</v>
@@ -18082,7 +18088,7 @@
         <v>82</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>80</v>
@@ -18117,7 +18123,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18201,7 +18207,7 @@
         <v>82</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>80</v>
@@ -18236,7 +18242,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18262,10 +18268,10 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>384</v>
@@ -18320,7 +18326,7 @@
         <v>82</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>80</v>
@@ -18355,10 +18361,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>82</v>
@@ -18383,16 +18389,16 @@
         <v>381</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>82</v>
@@ -18441,7 +18447,7 @@
         <v>82</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>80</v>
@@ -18462,10 +18468,10 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
@@ -18476,7 +18482,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18591,7 +18597,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18708,7 +18714,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18827,7 +18833,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18853,13 +18859,13 @@
         <v>190</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>204</v>
@@ -18872,7 +18878,7 @@
         <v>82</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>82</v>
@@ -18911,7 +18917,7 @@
         <v>82</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>92</v>
@@ -18929,7 +18935,7 @@
         <v>82</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>210</v>
@@ -18946,7 +18952,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18972,13 +18978,13 @@
         <v>190</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L142" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>306</v>
@@ -19010,7 +19016,7 @@
       </c>
       <c r="X142" s="2"/>
       <c r="Y142" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>82</v>
@@ -19028,7 +19034,7 @@
         <v>82</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>80</v>
@@ -19046,7 +19052,7 @@
         <v>82</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>310</v>
@@ -19063,7 +19069,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19089,13 +19095,13 @@
         <v>190</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>317</v>
@@ -19147,7 +19153,7 @@
         <v>82</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>80</v>
@@ -19182,7 +19188,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19266,7 +19272,7 @@
         <v>82</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>80</v>
@@ -19301,7 +19307,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19327,10 +19333,10 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>384</v>
@@ -19385,7 +19391,7 @@
         <v>82</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>80</v>
@@ -19420,10 +19426,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>82</v>
@@ -19448,16 +19454,16 @@
         <v>381</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>82</v>
@@ -19506,7 +19512,7 @@
         <v>82</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>80</v>
@@ -19527,10 +19533,10 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19541,7 +19547,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19656,7 +19662,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19773,7 +19779,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19892,7 +19898,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19918,13 +19924,13 @@
         <v>190</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>204</v>
@@ -19937,7 +19943,7 @@
         <v>82</v>
       </c>
       <c r="R150" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>82</v>
@@ -19976,7 +19982,7 @@
         <v>82</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>92</v>
@@ -19994,7 +20000,7 @@
         <v>82</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>210</v>
@@ -20011,7 +20017,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20037,13 +20043,13 @@
         <v>190</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L151" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>306</v>
@@ -20075,7 +20081,7 @@
       </c>
       <c r="X151" s="2"/>
       <c r="Y151" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>82</v>
@@ -20093,7 +20099,7 @@
         <v>82</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>80</v>
@@ -20111,7 +20117,7 @@
         <v>82</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>310</v>
@@ -20128,7 +20134,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20154,13 +20160,13 @@
         <v>190</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N152" t="s" s="2">
         <v>317</v>
@@ -20212,7 +20218,7 @@
         <v>82</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>80</v>
@@ -20247,7 +20253,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20331,7 +20337,7 @@
         <v>82</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>80</v>
@@ -20366,7 +20372,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20392,10 +20398,10 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>384</v>
@@ -20450,7 +20456,7 @@
         <v>82</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>80</v>
@@ -20485,10 +20491,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>82</v>
@@ -20513,16 +20519,16 @@
         <v>381</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>82</v>
@@ -20571,7 +20577,7 @@
         <v>82</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>80</v>
@@ -20592,10 +20598,10 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -20606,7 +20612,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20721,7 +20727,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20838,7 +20844,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20957,7 +20963,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20983,13 +20989,13 @@
         <v>190</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>204</v>
@@ -21002,7 +21008,7 @@
         <v>82</v>
       </c>
       <c r="R159" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>82</v>
@@ -21041,7 +21047,7 @@
         <v>82</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>92</v>
@@ -21059,7 +21065,7 @@
         <v>82</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>210</v>
@@ -21076,7 +21082,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21102,13 +21108,13 @@
         <v>190</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>306</v>
@@ -21140,7 +21146,7 @@
       </c>
       <c r="X160" s="2"/>
       <c r="Y160" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>82</v>
@@ -21158,7 +21164,7 @@
         <v>82</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>80</v>
@@ -21176,7 +21182,7 @@
         <v>82</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>310</v>
@@ -21193,7 +21199,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21219,13 +21225,13 @@
         <v>190</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N161" t="s" s="2">
         <v>317</v>
@@ -21277,7 +21283,7 @@
         <v>82</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>80</v>
@@ -21312,7 +21318,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21396,7 +21402,7 @@
         <v>82</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>80</v>
@@ -21431,7 +21437,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21457,10 +21463,10 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>384</v>
@@ -21515,7 +21521,7 @@
         <v>82</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>80</v>
@@ -21550,10 +21556,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>82</v>
@@ -21578,16 +21584,16 @@
         <v>381</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>82</v>
@@ -21636,7 +21642,7 @@
         <v>82</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>80</v>
@@ -21657,10 +21663,10 @@
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
@@ -21671,7 +21677,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21786,7 +21792,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21903,7 +21909,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22022,7 +22028,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22048,13 +22054,13 @@
         <v>190</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>204</v>
@@ -22067,7 +22073,7 @@
         <v>82</v>
       </c>
       <c r="R168" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>82</v>
@@ -22106,7 +22112,7 @@
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>92</v>
@@ -22124,7 +22130,7 @@
         <v>82</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>210</v>
@@ -22141,7 +22147,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22164,16 +22170,16 @@
         <v>93</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L169" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>306</v>
@@ -22213,17 +22219,17 @@
         <v>82</v>
       </c>
       <c r="AA169" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AB169" s="2"/>
       <c r="AC169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>80</v>
@@ -22241,7 +22247,7 @@
         <v>82</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>310</v>
@@ -22258,10 +22264,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>82</v>
@@ -22283,16 +22289,16 @@
         <v>93</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L170" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>306</v>
@@ -22344,7 +22350,7 @@
         <v>82</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>80</v>
@@ -22362,7 +22368,7 @@
         <v>82</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>310</v>
@@ -22379,7 +22385,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22494,7 +22500,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22611,7 +22617,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22634,19 +22640,19 @@
         <v>93</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>82</v>
@@ -22695,7 +22701,7 @@
         <v>82</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>80</v>
@@ -22716,10 +22722,10 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>82</v>
@@ -22730,7 +22736,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22756,20 +22762,20 @@
         <v>112</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="P174" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q174" t="s" s="2">
         <v>82</v>
@@ -22793,10 +22799,10 @@
         <v>181</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>82</v>
@@ -22814,7 +22820,7 @@
         <v>82</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>80</v>
@@ -22835,10 +22841,10 @@
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>82</v>
@@ -22849,7 +22855,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22875,14 +22881,14 @@
         <v>94</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>82</v>
@@ -22931,7 +22937,7 @@
         <v>82</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>80</v>
@@ -22952,10 +22958,10 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>82</v>
@@ -22966,7 +22972,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22992,14 +22998,14 @@
         <v>106</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>82</v>
@@ -23009,7 +23015,7 @@
         <v>82</v>
       </c>
       <c r="R176" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>82</v>
@@ -23048,7 +23054,7 @@
         <v>82</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>80</v>
@@ -23057,7 +23063,7 @@
         <v>92</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AI176" t="s" s="2">
         <v>104</v>
@@ -23069,10 +23075,10 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>82</v>
@@ -23083,7 +23089,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23109,16 +23115,16 @@
         <v>112</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>82</v>
@@ -23167,7 +23173,7 @@
         <v>82</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>80</v>
@@ -23188,10 +23194,10 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>82</v>
@@ -23202,7 +23208,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23228,13 +23234,13 @@
         <v>190</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N178" t="s" s="2">
         <v>317</v>
@@ -23286,7 +23292,7 @@
         <v>82</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>80</v>
@@ -23321,7 +23327,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23405,7 +23411,7 @@
         <v>82</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>80</v>
@@ -23440,7 +23446,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23466,10 +23472,10 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M180" t="s" s="2">
         <v>384</v>
@@ -23524,7 +23530,7 @@
         <v>82</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>80</v>
@@ -23559,10 +23565,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>82</v>
@@ -23587,16 +23593,16 @@
         <v>381</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>82</v>
@@ -23645,7 +23651,7 @@
         <v>82</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>80</v>
@@ -23666,10 +23672,10 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>82</v>
@@ -23680,7 +23686,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23795,7 +23801,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23912,7 +23918,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24031,7 +24037,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24057,13 +24063,13 @@
         <v>190</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N185" t="s" s="2">
         <v>204</v>
@@ -24076,7 +24082,7 @@
         <v>82</v>
       </c>
       <c r="R185" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>82</v>
@@ -24115,7 +24121,7 @@
         <v>82</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>92</v>
@@ -24133,7 +24139,7 @@
         <v>82</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>210</v>
@@ -24150,7 +24156,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24173,16 +24179,16 @@
         <v>93</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L186" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N186" t="s" s="2">
         <v>306</v>
@@ -24222,17 +24228,17 @@
         <v>82</v>
       </c>
       <c r="AA186" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AB186" s="2"/>
       <c r="AC186" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD186" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>80</v>
@@ -24250,7 +24256,7 @@
         <v>82</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL186" t="s" s="2">
         <v>310</v>
@@ -24267,10 +24273,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>82</v>
@@ -24292,16 +24298,16 @@
         <v>93</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L187" t="s" s="2">
         <v>304</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N187" t="s" s="2">
         <v>306</v>
@@ -24353,7 +24359,7 @@
         <v>82</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>80</v>
@@ -24371,7 +24377,7 @@
         <v>82</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>310</v>
@@ -24388,7 +24394,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24503,7 +24509,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24620,7 +24626,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24643,19 +24649,19 @@
         <v>93</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>82</v>
@@ -24704,7 +24710,7 @@
         <v>82</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>80</v>
@@ -24725,10 +24731,10 @@
         <v>82</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
@@ -24739,7 +24745,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24765,20 +24771,20 @@
         <v>112</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="P191" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q191" t="s" s="2">
         <v>82</v>
@@ -24802,10 +24808,10 @@
         <v>181</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>82</v>
@@ -24823,7 +24829,7 @@
         <v>82</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>80</v>
@@ -24844,10 +24850,10 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
@@ -24858,7 +24864,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24884,14 +24890,14 @@
         <v>94</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>82</v>
@@ -24940,7 +24946,7 @@
         <v>82</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>80</v>
@@ -24961,10 +24967,10 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>
@@ -24975,7 +24981,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25001,14 +25007,14 @@
         <v>106</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>82</v>
@@ -25018,7 +25024,7 @@
         <v>82</v>
       </c>
       <c r="R193" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>82</v>
@@ -25057,7 +25063,7 @@
         <v>82</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>80</v>
@@ -25066,7 +25072,7 @@
         <v>92</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AI193" t="s" s="2">
         <v>104</v>
@@ -25078,10 +25084,10 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>82</v>
@@ -25092,7 +25098,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25118,16 +25124,16 @@
         <v>112</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>82</v>
@@ -25176,7 +25182,7 @@
         <v>82</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>80</v>
@@ -25197,10 +25203,10 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
@@ -25211,7 +25217,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25237,13 +25243,13 @@
         <v>190</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N195" t="s" s="2">
         <v>317</v>
@@ -25295,7 +25301,7 @@
         <v>82</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>80</v>
@@ -25330,7 +25336,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25414,7 +25420,7 @@
         <v>82</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>80</v>
@@ -25449,7 +25455,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25475,10 +25481,10 @@
         <v>82</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M197" t="s" s="2">
         <v>384</v>
@@ -25533,7 +25539,7 @@
         <v>82</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1580,7 +1580,7 @@
     <t>a Symbol</t>
   </si>
   <si>
-    <t>Recurrent tumors, when classified after a disease free interval, are identified by the prefix r.</t>
+    <t>The prefix a indicates that classification is first determined at autopsy.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SD_UICC_TNM</t>
+    <t>UICC_TNM</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,10 +274,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,389 +293,393 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2277,39 +2277,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.109375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.11328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2540,19 +2540,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2574,28 +2574,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2645,13 +2645,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2691,25 +2691,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2760,19 +2760,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2806,28 +2806,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2877,19 +2877,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2923,7 +2923,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2935,16 +2935,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2970,43 +2970,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -3029,18 +3029,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -3052,16 +3052,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3111,31 +3111,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -3146,11 +3146,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3169,16 +3169,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3228,7 +3228,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -3252,7 +3252,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3263,11 +3263,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3286,16 +3286,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3345,7 +3345,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3357,7 +3357,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3369,7 +3369,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3380,11 +3380,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3397,25 +3397,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3464,7 +3464,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3476,7 +3476,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3488,7 +3488,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3519,20 +3519,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3581,7 +3581,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3593,22 +3593,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3616,11 +3616,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3636,20 +3636,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3698,7 +3698,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3710,19 +3710,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3733,11 +3733,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3753,19 +3753,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3815,7 +3815,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3827,19 +3827,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3858,34 +3858,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3910,58 +3910,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3992,19 +3992,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -4029,14 +4029,14 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>82</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -4065,7 +4065,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -4077,10 +4077,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4088,42 +4088,42 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -4148,66 +4148,66 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4218,7 +4218,7 @@
         <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>82</v>
@@ -4230,7 +4230,7 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>215</v>
@@ -4293,7 +4293,7 @@
         <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>82</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4345,16 +4345,16 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4416,7 +4416,7 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>82</v>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>81</v>
@@ -4459,7 +4459,7 @@
         <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>226</v>
@@ -4533,7 +4533,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4578,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>226</v>
@@ -4654,7 +4654,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4687,19 +4687,19 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>226</v>
@@ -4739,7 +4739,7 @@
         <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
@@ -4773,7 +4773,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4807,19 +4807,19 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>240</v>
@@ -4886,13 +4886,13 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>82</v>
@@ -4923,19 +4923,19 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>248</v>
@@ -5005,13 +5005,13 @@
         <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>253</v>
@@ -5054,7 +5054,7 @@
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>258</v>
@@ -5128,7 +5128,7 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -5137,7 +5137,7 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>262</v>
@@ -5162,16 +5162,16 @@
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>265</v>
@@ -5241,13 +5241,13 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>270</v>
@@ -5281,16 +5281,16 @@
         <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>276</v>
@@ -5360,13 +5360,13 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>281</v>
@@ -5400,16 +5400,16 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>286</v>
@@ -5477,13 +5477,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5526,7 +5526,7 @@
         <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>294</v>
@@ -5600,7 +5600,7 @@
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>298</v>
@@ -5634,19 +5634,19 @@
         <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>303</v>
@@ -5683,7 +5683,7 @@
         <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
@@ -5711,13 +5711,13 @@
         <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5751,7 +5751,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5763,7 +5763,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>314</v>
@@ -5830,13 +5830,13 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>82</v>
@@ -5845,7 +5845,7 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>322</v>
@@ -5882,7 +5882,7 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>325</v>
@@ -5955,7 +5955,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -6074,7 +6074,7 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -6108,7 +6108,7 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>82</v>
@@ -6120,7 +6120,7 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>344</v>
@@ -6155,7 +6155,7 @@
         <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>347</v>
@@ -6185,13 +6185,13 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -6225,7 +6225,7 @@
         <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>82</v>
@@ -6237,7 +6237,7 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>354</v>
@@ -6274,7 +6274,7 @@
         <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>358</v>
@@ -6304,13 +6304,13 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6344,7 +6344,7 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>82</v>
@@ -6421,13 +6421,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6461,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>82</v>
@@ -6538,13 +6538,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6697,7 +6697,7 @@
         <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>82</v>
@@ -6709,7 +6709,7 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>215</v>
@@ -6772,7 +6772,7 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6824,16 +6824,16 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6895,7 +6895,7 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6935,13 +6935,13 @@
         <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>393</v>
@@ -6950,10 +6950,10 @@
         <v>394</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>82</v>
@@ -7014,7 +7014,7 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>82</v>
@@ -7026,7 +7026,7 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -7048,7 +7048,7 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>82</v>
@@ -7123,13 +7123,13 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>82</v>
@@ -7163,7 +7163,7 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>82</v>
@@ -7238,13 +7238,13 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -7278,7 +7278,7 @@
         <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>82</v>
@@ -7290,7 +7290,7 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>408</v>
@@ -7327,7 +7327,7 @@
         <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>412</v>
@@ -7357,13 +7357,13 @@
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>82</v>
@@ -7409,7 +7409,7 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>417</v>
@@ -7446,7 +7446,7 @@
         <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>421</v>
@@ -7482,7 +7482,7 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7516,7 +7516,7 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>82</v>
@@ -7593,13 +7593,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7633,7 +7633,7 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7645,7 +7645,7 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>430</v>
@@ -7708,13 +7708,13 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
@@ -7757,7 +7757,7 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>434</v>
@@ -7829,7 +7829,7 @@
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7865,16 +7865,16 @@
         <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>442</v>
@@ -7948,7 +7948,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7991,7 +7991,7 @@
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>446</v>
@@ -8065,7 +8065,7 @@
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
@@ -8108,7 +8108,7 @@
         <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>381</v>
@@ -8182,7 +8182,7 @@
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
@@ -8216,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>82</v>
@@ -8228,7 +8228,7 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>215</v>
@@ -8291,7 +8291,7 @@
         <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>82</v>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8343,16 +8343,16 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8414,7 +8414,7 @@
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8454,13 +8454,13 @@
         <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>393</v>
@@ -8469,10 +8469,10 @@
         <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>82</v>
@@ -8533,7 +8533,7 @@
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8545,7 +8545,7 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8564,22 +8564,22 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>463</v>
@@ -8591,7 +8591,7 @@
         <v>465</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>82</v>
@@ -8616,13 +8616,13 @@
         <v>82</v>
       </c>
       <c r="W54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X54" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X54" t="s" s="2">
+      <c r="Y54" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>82</v>
@@ -8643,16 +8643,16 @@
         <v>462</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
@@ -8661,13 +8661,13 @@
         <v>466</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8686,16 +8686,16 @@
         <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>468</v>
@@ -8765,13 +8765,13 @@
         <v>80</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8805,7 +8805,7 @@
         <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>82</v>
@@ -8817,7 +8817,7 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>473</v>
@@ -8884,13 +8884,13 @@
         <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8899,7 +8899,7 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>322</v>
@@ -8936,7 +8936,7 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>325</v>
@@ -9009,7 +9009,7 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -9128,7 +9128,7 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>82</v>
@@ -9164,16 +9164,16 @@
         <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>381</v>
@@ -9249,7 +9249,7 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -9283,7 +9283,7 @@
         <v>80</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>82</v>
@@ -9295,7 +9295,7 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>215</v>
@@ -9358,7 +9358,7 @@
         <v>80</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>82</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9410,16 +9410,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9481,7 +9481,7 @@
         <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>82</v>
@@ -9521,13 +9521,13 @@
         <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>393</v>
@@ -9536,10 +9536,10 @@
         <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>82</v>
@@ -9600,7 +9600,7 @@
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
@@ -9612,7 +9612,7 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9631,22 +9631,22 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F63" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>463</v>
@@ -9658,7 +9658,7 @@
         <v>465</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>82</v>
@@ -9683,13 +9683,13 @@
         <v>82</v>
       </c>
       <c r="W63" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X63" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X63" t="s" s="2">
+      <c r="Y63" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>82</v>
@@ -9710,16 +9710,16 @@
         <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9728,13 +9728,13 @@
         <v>466</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9753,19 +9753,19 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>469</v>
@@ -9832,13 +9832,13 @@
         <v>80</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9872,7 +9872,7 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>82</v>
@@ -9884,7 +9884,7 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>473</v>
@@ -9951,13 +9951,13 @@
         <v>80</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -9966,7 +9966,7 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>322</v>
@@ -10003,7 +10003,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>325</v>
@@ -10076,7 +10076,7 @@
         <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>82</v>
@@ -10195,7 +10195,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -10231,16 +10231,16 @@
         <v>80</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>381</v>
@@ -10316,7 +10316,7 @@
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -10350,7 +10350,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>82</v>
@@ -10362,7 +10362,7 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>215</v>
@@ -10425,7 +10425,7 @@
         <v>80</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
@@ -10458,7 +10458,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10477,16 +10477,16 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10548,7 +10548,7 @@
         <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
@@ -10588,13 +10588,13 @@
         <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>393</v>
@@ -10603,10 +10603,10 @@
         <v>394</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>82</v>
@@ -10667,7 +10667,7 @@
         <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10679,7 +10679,7 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10698,22 +10698,22 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F72" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>463</v>
@@ -10725,7 +10725,7 @@
         <v>465</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>82</v>
@@ -10750,13 +10750,13 @@
         <v>82</v>
       </c>
       <c r="W72" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X72" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X72" t="s" s="2">
+      <c r="Y72" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>82</v>
@@ -10777,16 +10777,16 @@
         <v>462</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10795,13 +10795,13 @@
         <v>466</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10820,19 +10820,19 @@
         <v>80</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>469</v>
@@ -10899,13 +10899,13 @@
         <v>80</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>
@@ -10939,7 +10939,7 @@
         <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>82</v>
@@ -10951,7 +10951,7 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>473</v>
@@ -11018,13 +11018,13 @@
         <v>80</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -11033,7 +11033,7 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>322</v>
@@ -11070,7 +11070,7 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>325</v>
@@ -11143,7 +11143,7 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>82</v>
@@ -11262,7 +11262,7 @@
         <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>82</v>
@@ -11298,16 +11298,16 @@
         <v>80</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>381</v>
@@ -11383,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>82</v>
@@ -11417,7 +11417,7 @@
         <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -11429,7 +11429,7 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>215</v>
@@ -11492,7 +11492,7 @@
         <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>82</v>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11544,16 +11544,16 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11615,7 +11615,7 @@
         <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>82</v>
@@ -11655,13 +11655,13 @@
         <v>82</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>393</v>
@@ -11670,10 +11670,10 @@
         <v>394</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>82</v>
@@ -11734,7 +11734,7 @@
         <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>82</v>
@@ -11746,7 +11746,7 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11765,22 +11765,22 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>463</v>
@@ -11792,7 +11792,7 @@
         <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>82</v>
@@ -11817,13 +11817,13 @@
         <v>82</v>
       </c>
       <c r="W81" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X81" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X81" t="s" s="2">
+      <c r="Y81" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>82</v>
@@ -11844,16 +11844,16 @@
         <v>462</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>82</v>
@@ -11862,13 +11862,13 @@
         <v>466</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -11887,19 +11887,19 @@
         <v>80</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>469</v>
@@ -11966,13 +11966,13 @@
         <v>80</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>82</v>
@@ -12006,7 +12006,7 @@
         <v>80</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>82</v>
@@ -12018,7 +12018,7 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>473</v>
@@ -12085,13 +12085,13 @@
         <v>80</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -12100,7 +12100,7 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>322</v>
@@ -12137,7 +12137,7 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>325</v>
@@ -12210,7 +12210,7 @@
         <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>82</v>
@@ -12329,7 +12329,7 @@
         <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>82</v>
@@ -12365,16 +12365,16 @@
         <v>80</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>381</v>
@@ -12450,7 +12450,7 @@
         <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>82</v>
@@ -12484,7 +12484,7 @@
         <v>80</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>82</v>
@@ -12496,7 +12496,7 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>215</v>
@@ -12559,7 +12559,7 @@
         <v>80</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>82</v>
@@ -12611,7 +12611,7 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>498</v>
@@ -12678,7 +12678,7 @@
         <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>82</v>
@@ -12714,7 +12714,7 @@
         <v>80</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>82</v>
@@ -12795,7 +12795,7 @@
         <v>504</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>82</v>
@@ -12835,13 +12835,13 @@
         <v>82</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>393</v>
@@ -12850,10 +12850,10 @@
         <v>394</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>82</v>
@@ -12914,7 +12914,7 @@
         <v>82</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>82</v>
@@ -12926,7 +12926,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12945,22 +12945,22 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F91" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>463</v>
@@ -12972,7 +12972,7 @@
         <v>465</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>82</v>
@@ -12997,7 +12997,7 @@
         <v>82</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
@@ -13022,16 +13022,16 @@
         <v>462</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>82</v>
@@ -13040,13 +13040,13 @@
         <v>466</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13065,19 +13065,19 @@
         <v>80</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>469</v>
@@ -13114,7 +13114,7 @@
         <v>82</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
@@ -13142,13 +13142,13 @@
         <v>80</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>82</v>
@@ -13182,7 +13182,7 @@
         <v>80</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>82</v>
@@ -13194,7 +13194,7 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>473</v>
@@ -13261,13 +13261,13 @@
         <v>80</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>82</v>
@@ -13276,7 +13276,7 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>322</v>
@@ -13313,7 +13313,7 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>325</v>
@@ -13386,7 +13386,7 @@
         <v>82</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>82</v>
@@ -13505,7 +13505,7 @@
         <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>82</v>
@@ -13541,16 +13541,16 @@
         <v>80</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>381</v>
@@ -13626,7 +13626,7 @@
         <v>82</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>82</v>
@@ -13660,7 +13660,7 @@
         <v>80</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>82</v>
@@ -13672,7 +13672,7 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>215</v>
@@ -13735,7 +13735,7 @@
         <v>80</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>82</v>
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13787,16 +13787,16 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13858,7 +13858,7 @@
         <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>82</v>
@@ -13898,13 +13898,13 @@
         <v>82</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>393</v>
@@ -13913,10 +13913,10 @@
         <v>394</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>82</v>
@@ -13977,7 +13977,7 @@
         <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>82</v>
@@ -13989,7 +13989,7 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
@@ -14008,22 +14008,22 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F100" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>463</v>
@@ -14035,7 +14035,7 @@
         <v>465</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>82</v>
@@ -14060,13 +14060,13 @@
         <v>82</v>
       </c>
       <c r="W100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X100" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X100" t="s" s="2">
+      <c r="Y100" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>82</v>
@@ -14087,16 +14087,16 @@
         <v>462</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>82</v>
@@ -14105,13 +14105,13 @@
         <v>466</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM100" t="s" s="2">
+      <c r="AN100" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14130,19 +14130,19 @@
         <v>80</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J101" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>469</v>
@@ -14179,7 +14179,7 @@
         <v>82</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
@@ -14207,13 +14207,13 @@
         <v>80</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>82</v>
@@ -14247,7 +14247,7 @@
         <v>80</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>82</v>
@@ -14259,7 +14259,7 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>473</v>
@@ -14326,13 +14326,13 @@
         <v>80</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>82</v>
@@ -14341,7 +14341,7 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>322</v>
@@ -14378,7 +14378,7 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>325</v>
@@ -14451,7 +14451,7 @@
         <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>82</v>
@@ -14570,7 +14570,7 @@
         <v>82</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>82</v>
@@ -14606,16 +14606,16 @@
         <v>80</v>
       </c>
       <c r="F105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>381</v>
@@ -14691,7 +14691,7 @@
         <v>82</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>82</v>
@@ -14725,7 +14725,7 @@
         <v>80</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>82</v>
@@ -14737,7 +14737,7 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>215</v>
@@ -14800,7 +14800,7 @@
         <v>80</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>82</v>
@@ -14852,7 +14852,7 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>498</v>
@@ -14919,7 +14919,7 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>82</v>
@@ -14955,7 +14955,7 @@
         <v>80</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>82</v>
@@ -15036,7 +15036,7 @@
         <v>504</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>82</v>
@@ -15072,7 +15072,7 @@
         <v>80</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>82</v>
@@ -15153,7 +15153,7 @@
         <v>504</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>82</v>
@@ -15189,7 +15189,7 @@
         <v>80</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>82</v>
@@ -15270,7 +15270,7 @@
         <v>504</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>82</v>
@@ -15310,13 +15310,13 @@
         <v>82</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>393</v>
@@ -15325,10 +15325,10 @@
         <v>394</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>82</v>
@@ -15389,7 +15389,7 @@
         <v>82</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>82</v>
@@ -15401,7 +15401,7 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
@@ -15420,22 +15420,22 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>463</v>
@@ -15447,7 +15447,7 @@
         <v>465</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>82</v>
@@ -15472,7 +15472,7 @@
         <v>82</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
@@ -15497,16 +15497,16 @@
         <v>462</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>82</v>
@@ -15515,13 +15515,13 @@
         <v>466</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15540,19 +15540,19 @@
         <v>80</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J113" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>469</v>
@@ -15589,7 +15589,7 @@
         <v>82</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X113" s="2"/>
       <c r="Y113" t="s" s="2">
@@ -15617,13 +15617,13 @@
         <v>80</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>82</v>
@@ -15657,7 +15657,7 @@
         <v>80</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>82</v>
@@ -15669,7 +15669,7 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>473</v>
@@ -15736,13 +15736,13 @@
         <v>80</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>82</v>
@@ -15751,7 +15751,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>322</v>
@@ -15788,7 +15788,7 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>325</v>
@@ -15861,7 +15861,7 @@
         <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>82</v>
@@ -15980,7 +15980,7 @@
         <v>82</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>82</v>
@@ -16016,16 +16016,16 @@
         <v>80</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>381</v>
@@ -16101,7 +16101,7 @@
         <v>82</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>82</v>
@@ -16135,7 +16135,7 @@
         <v>80</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>82</v>
@@ -16147,7 +16147,7 @@
         <v>82</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>215</v>
@@ -16210,7 +16210,7 @@
         <v>80</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>82</v>
@@ -16262,7 +16262,7 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>498</v>
@@ -16329,7 +16329,7 @@
         <v>82</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>82</v>
@@ -16365,7 +16365,7 @@
         <v>80</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>82</v>
@@ -16446,7 +16446,7 @@
         <v>504</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>82</v>
@@ -16482,7 +16482,7 @@
         <v>80</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>82</v>
@@ -16563,7 +16563,7 @@
         <v>504</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>82</v>
@@ -16603,13 +16603,13 @@
         <v>82</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>393</v>
@@ -16618,10 +16618,10 @@
         <v>394</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>82</v>
@@ -16682,7 +16682,7 @@
         <v>82</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>82</v>
@@ -16694,7 +16694,7 @@
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
@@ -16713,22 +16713,22 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I123" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F123" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J123" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>463</v>
@@ -16740,7 +16740,7 @@
         <v>465</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>82</v>
@@ -16765,7 +16765,7 @@
         <v>82</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
@@ -16790,16 +16790,16 @@
         <v>462</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>82</v>
@@ -16808,13 +16808,13 @@
         <v>466</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM123" t="s" s="2">
+      <c r="AN123" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
@@ -16833,19 +16833,19 @@
         <v>80</v>
       </c>
       <c r="F124" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J124" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>469</v>
@@ -16882,7 +16882,7 @@
         <v>82</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X124" s="2"/>
       <c r="Y124" t="s" s="2">
@@ -16910,13 +16910,13 @@
         <v>80</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>82</v>
@@ -16950,7 +16950,7 @@
         <v>80</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>82</v>
@@ -16962,7 +16962,7 @@
         <v>82</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>473</v>
@@ -17029,13 +17029,13 @@
         <v>80</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>82</v>
@@ -17044,7 +17044,7 @@
         <v>82</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>322</v>
@@ -17081,7 +17081,7 @@
         <v>82</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>325</v>
@@ -17154,7 +17154,7 @@
         <v>82</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>82</v>
@@ -17273,7 +17273,7 @@
         <v>82</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>82</v>
@@ -17309,16 +17309,16 @@
         <v>80</v>
       </c>
       <c r="F128" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I128" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>381</v>
@@ -17394,7 +17394,7 @@
         <v>82</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>82</v>
@@ -17428,7 +17428,7 @@
         <v>80</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>82</v>
@@ -17440,7 +17440,7 @@
         <v>82</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>215</v>
@@ -17503,7 +17503,7 @@
         <v>80</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>82</v>
@@ -17536,7 +17536,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17555,16 +17555,16 @@
         <v>82</v>
       </c>
       <c r="J130" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K130" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17626,7 +17626,7 @@
         <v>82</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>82</v>
@@ -17666,13 +17666,13 @@
         <v>82</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>393</v>
@@ -17681,10 +17681,10 @@
         <v>394</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>82</v>
@@ -17745,7 +17745,7 @@
         <v>82</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>82</v>
@@ -17757,7 +17757,7 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
@@ -17776,22 +17776,22 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I132" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J132" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>463</v>
@@ -17803,7 +17803,7 @@
         <v>465</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>82</v>
@@ -17828,13 +17828,13 @@
         <v>82</v>
       </c>
       <c r="W132" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X132" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X132" t="s" s="2">
+      <c r="Y132" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>82</v>
@@ -17855,16 +17855,16 @@
         <v>462</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>82</v>
@@ -17873,13 +17873,13 @@
         <v>466</v>
       </c>
       <c r="AL132" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM132" t="s" s="2">
+      <c r="AN132" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>82</v>
@@ -17898,19 +17898,19 @@
         <v>80</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>469</v>
@@ -17947,7 +17947,7 @@
         <v>82</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
@@ -17975,13 +17975,13 @@
         <v>80</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>82</v>
@@ -18015,7 +18015,7 @@
         <v>80</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>82</v>
@@ -18027,7 +18027,7 @@
         <v>82</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>473</v>
@@ -18094,13 +18094,13 @@
         <v>80</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>82</v>
@@ -18109,7 +18109,7 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>322</v>
@@ -18146,7 +18146,7 @@
         <v>82</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>325</v>
@@ -18219,7 +18219,7 @@
         <v>82</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>82</v>
@@ -18338,7 +18338,7 @@
         <v>82</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>82</v>
@@ -18374,16 +18374,16 @@
         <v>80</v>
       </c>
       <c r="F137" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I137" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>381</v>
@@ -18459,7 +18459,7 @@
         <v>82</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>82</v>
@@ -18493,7 +18493,7 @@
         <v>80</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>82</v>
@@ -18505,7 +18505,7 @@
         <v>82</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>215</v>
@@ -18568,7 +18568,7 @@
         <v>80</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>82</v>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18620,16 +18620,16 @@
         <v>82</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L139" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18691,7 +18691,7 @@
         <v>82</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>82</v>
@@ -18731,13 +18731,13 @@
         <v>82</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>393</v>
@@ -18746,10 +18746,10 @@
         <v>394</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>82</v>
@@ -18810,7 +18810,7 @@
         <v>82</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>82</v>
@@ -18822,7 +18822,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -18841,22 +18841,22 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F141" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>463</v>
@@ -18868,7 +18868,7 @@
         <v>465</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>82</v>
@@ -18893,13 +18893,13 @@
         <v>82</v>
       </c>
       <c r="W141" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X141" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X141" t="s" s="2">
+      <c r="Y141" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>82</v>
@@ -18920,16 +18920,16 @@
         <v>462</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>82</v>
@@ -18938,13 +18938,13 @@
         <v>466</v>
       </c>
       <c r="AL141" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM141" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM141" t="s" s="2">
+      <c r="AN141" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -18963,19 +18963,19 @@
         <v>80</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>469</v>
@@ -19012,7 +19012,7 @@
         <v>82</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X142" s="2"/>
       <c r="Y142" t="s" s="2">
@@ -19040,13 +19040,13 @@
         <v>80</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>82</v>
@@ -19080,7 +19080,7 @@
         <v>80</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>82</v>
@@ -19092,7 +19092,7 @@
         <v>82</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>473</v>
@@ -19159,13 +19159,13 @@
         <v>80</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>82</v>
@@ -19174,7 +19174,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>322</v>
@@ -19211,7 +19211,7 @@
         <v>82</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>325</v>
@@ -19284,7 +19284,7 @@
         <v>82</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>82</v>
@@ -19403,7 +19403,7 @@
         <v>82</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>82</v>
@@ -19439,16 +19439,16 @@
         <v>80</v>
       </c>
       <c r="F146" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I146" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>381</v>
@@ -19524,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>82</v>
@@ -19558,7 +19558,7 @@
         <v>80</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>82</v>
@@ -19570,7 +19570,7 @@
         <v>82</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>215</v>
@@ -19633,7 +19633,7 @@
         <v>80</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>82</v>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19685,16 +19685,16 @@
         <v>82</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K148" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L148" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -19756,7 +19756,7 @@
         <v>82</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>82</v>
@@ -19796,13 +19796,13 @@
         <v>82</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>393</v>
@@ -19811,10 +19811,10 @@
         <v>394</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>82</v>
@@ -19875,7 +19875,7 @@
         <v>82</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>82</v>
@@ -19887,7 +19887,7 @@
         <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>82</v>
@@ -19906,22 +19906,22 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I150" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J150" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>463</v>
@@ -19933,7 +19933,7 @@
         <v>465</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>82</v>
@@ -19958,13 +19958,13 @@
         <v>82</v>
       </c>
       <c r="W150" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X150" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X150" t="s" s="2">
+      <c r="Y150" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>82</v>
@@ -19985,16 +19985,16 @@
         <v>462</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>82</v>
@@ -20003,13 +20003,13 @@
         <v>466</v>
       </c>
       <c r="AL150" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM150" t="s" s="2">
+      <c r="AN150" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>82</v>
@@ -20028,19 +20028,19 @@
         <v>80</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J151" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>469</v>
@@ -20077,7 +20077,7 @@
         <v>82</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X151" s="2"/>
       <c r="Y151" t="s" s="2">
@@ -20105,13 +20105,13 @@
         <v>80</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>82</v>
@@ -20145,7 +20145,7 @@
         <v>80</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>82</v>
@@ -20157,7 +20157,7 @@
         <v>82</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>473</v>
@@ -20224,13 +20224,13 @@
         <v>80</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>82</v>
@@ -20239,7 +20239,7 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>322</v>
@@ -20276,7 +20276,7 @@
         <v>82</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>325</v>
@@ -20349,7 +20349,7 @@
         <v>82</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>82</v>
@@ -20468,7 +20468,7 @@
         <v>82</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>82</v>
@@ -20504,16 +20504,16 @@
         <v>80</v>
       </c>
       <c r="F155" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I155" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>381</v>
@@ -20589,7 +20589,7 @@
         <v>82</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>82</v>
@@ -20623,7 +20623,7 @@
         <v>80</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>82</v>
@@ -20635,7 +20635,7 @@
         <v>82</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>215</v>
@@ -20698,7 +20698,7 @@
         <v>80</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>82</v>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20750,16 +20750,16 @@
         <v>82</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20821,7 +20821,7 @@
         <v>82</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>82</v>
@@ -20861,13 +20861,13 @@
         <v>82</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>393</v>
@@ -20876,10 +20876,10 @@
         <v>394</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>82</v>
@@ -20940,7 +20940,7 @@
         <v>82</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>82</v>
@@ -20952,7 +20952,7 @@
         <v>82</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
@@ -20971,22 +20971,22 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I159" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F159" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J159" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>463</v>
@@ -20998,7 +20998,7 @@
         <v>465</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>82</v>
@@ -21023,13 +21023,13 @@
         <v>82</v>
       </c>
       <c r="W159" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X159" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X159" t="s" s="2">
+      <c r="Y159" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>82</v>
@@ -21050,16 +21050,16 @@
         <v>462</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>82</v>
@@ -21068,13 +21068,13 @@
         <v>466</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM159" t="s" s="2">
+      <c r="AN159" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>82</v>
@@ -21093,19 +21093,19 @@
         <v>80</v>
       </c>
       <c r="F160" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I160" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J160" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>469</v>
@@ -21142,7 +21142,7 @@
         <v>82</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X160" s="2"/>
       <c r="Y160" t="s" s="2">
@@ -21170,13 +21170,13 @@
         <v>80</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>82</v>
@@ -21210,7 +21210,7 @@
         <v>80</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>82</v>
@@ -21222,7 +21222,7 @@
         <v>82</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>473</v>
@@ -21289,13 +21289,13 @@
         <v>80</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>82</v>
@@ -21304,7 +21304,7 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>322</v>
@@ -21341,7 +21341,7 @@
         <v>82</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>325</v>
@@ -21414,7 +21414,7 @@
         <v>82</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>82</v>
@@ -21533,7 +21533,7 @@
         <v>82</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>82</v>
@@ -21569,16 +21569,16 @@
         <v>80</v>
       </c>
       <c r="F164" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I164" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>381</v>
@@ -21654,7 +21654,7 @@
         <v>82</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>82</v>
@@ -21688,7 +21688,7 @@
         <v>80</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>82</v>
@@ -21700,7 +21700,7 @@
         <v>82</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>215</v>
@@ -21763,7 +21763,7 @@
         <v>80</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>82</v>
@@ -21796,7 +21796,7 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21815,16 +21815,16 @@
         <v>82</v>
       </c>
       <c r="J166" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K166" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L166" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
@@ -21886,7 +21886,7 @@
         <v>82</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>82</v>
@@ -21926,13 +21926,13 @@
         <v>82</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>393</v>
@@ -21941,10 +21941,10 @@
         <v>394</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>82</v>
@@ -22005,7 +22005,7 @@
         <v>82</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>82</v>
@@ -22017,7 +22017,7 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
@@ -22036,22 +22036,22 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I168" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F168" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J168" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>463</v>
@@ -22063,7 +22063,7 @@
         <v>465</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>82</v>
@@ -22088,13 +22088,13 @@
         <v>82</v>
       </c>
       <c r="W168" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X168" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X168" t="s" s="2">
+      <c r="Y168" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>82</v>
@@ -22115,16 +22115,16 @@
         <v>462</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>82</v>
@@ -22133,13 +22133,13 @@
         <v>466</v>
       </c>
       <c r="AL168" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM168" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM168" t="s" s="2">
+      <c r="AN168" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>82</v>
@@ -22158,16 +22158,16 @@
         <v>80</v>
       </c>
       <c r="F169" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I169" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>549</v>
@@ -22235,13 +22235,13 @@
         <v>80</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>82</v>
@@ -22277,16 +22277,16 @@
         <v>80</v>
       </c>
       <c r="F170" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I170" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>549</v>
@@ -22356,13 +22356,13 @@
         <v>80</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>82</v>
@@ -22396,7 +22396,7 @@
         <v>80</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>82</v>
@@ -22408,7 +22408,7 @@
         <v>82</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>215</v>
@@ -22471,7 +22471,7 @@
         <v>80</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>82</v>
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22523,16 +22523,16 @@
         <v>82</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22594,7 +22594,7 @@
         <v>82</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>82</v>
@@ -22628,16 +22628,16 @@
         <v>80</v>
       </c>
       <c r="F173" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I173" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J173" t="s" s="2">
         <v>556</v>
@@ -22707,13 +22707,13 @@
         <v>80</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>82</v>
@@ -22747,19 +22747,19 @@
         <v>80</v>
       </c>
       <c r="F174" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I174" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>565</v>
@@ -22796,7 +22796,7 @@
         <v>82</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X174" t="s" s="2">
         <v>569</v>
@@ -22826,13 +22826,13 @@
         <v>80</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>82</v>
@@ -22866,19 +22866,19 @@
         <v>80</v>
       </c>
       <c r="F175" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I175" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J175" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>575</v>
@@ -22943,13 +22943,13 @@
         <v>80</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>82</v>
@@ -22983,19 +22983,19 @@
         <v>80</v>
       </c>
       <c r="F176" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I176" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J176" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K176" t="s" s="2">
         <v>582</v>
@@ -23060,13 +23060,13 @@
         <v>80</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>587</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>82</v>
@@ -23100,19 +23100,19 @@
         <v>80</v>
       </c>
       <c r="F177" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I177" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J177" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>590</v>
@@ -23134,7 +23134,7 @@
         <v>82</v>
       </c>
       <c r="R177" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S177" t="s" s="2">
         <v>82</v>
@@ -23179,13 +23179,13 @@
         <v>80</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>82</v>
@@ -23219,7 +23219,7 @@
         <v>80</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>82</v>
@@ -23231,7 +23231,7 @@
         <v>82</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>473</v>
@@ -23298,13 +23298,13 @@
         <v>80</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>82</v>
@@ -23313,7 +23313,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>322</v>
@@ -23350,7 +23350,7 @@
         <v>82</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>325</v>
@@ -23423,7 +23423,7 @@
         <v>82</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>82</v>
@@ -23542,7 +23542,7 @@
         <v>82</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>82</v>
@@ -23578,16 +23578,16 @@
         <v>80</v>
       </c>
       <c r="F181" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H181" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H181" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I181" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J181" t="s" s="2">
         <v>381</v>
@@ -23663,7 +23663,7 @@
         <v>82</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>82</v>
@@ -23697,7 +23697,7 @@
         <v>80</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>82</v>
@@ -23709,7 +23709,7 @@
         <v>82</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>215</v>
@@ -23772,7 +23772,7 @@
         <v>80</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>82</v>
@@ -23805,7 +23805,7 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23824,16 +23824,16 @@
         <v>82</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K183" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L183" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
@@ -23895,7 +23895,7 @@
         <v>82</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>82</v>
@@ -23935,13 +23935,13 @@
         <v>82</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>393</v>
@@ -23950,10 +23950,10 @@
         <v>394</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>82</v>
@@ -24014,7 +24014,7 @@
         <v>82</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>82</v>
@@ -24026,7 +24026,7 @@
         <v>82</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>82</v>
@@ -24045,22 +24045,22 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F185" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F185" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J185" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>463</v>
@@ -24072,7 +24072,7 @@
         <v>465</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>82</v>
@@ -24097,13 +24097,13 @@
         <v>82</v>
       </c>
       <c r="W185" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="X185" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X185" t="s" s="2">
+      <c r="Y185" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y185" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>82</v>
@@ -24124,16 +24124,16 @@
         <v>462</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>82</v>
@@ -24142,13 +24142,13 @@
         <v>466</v>
       </c>
       <c r="AL185" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM185" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM185" t="s" s="2">
+      <c r="AN185" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO185" t="s" s="2">
         <v>82</v>
@@ -24167,16 +24167,16 @@
         <v>80</v>
       </c>
       <c r="F186" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I186" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>549</v>
@@ -24244,13 +24244,13 @@
         <v>80</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>82</v>
@@ -24286,16 +24286,16 @@
         <v>80</v>
       </c>
       <c r="F187" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I187" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>549</v>
@@ -24365,13 +24365,13 @@
         <v>80</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>82</v>
@@ -24405,7 +24405,7 @@
         <v>80</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>82</v>
@@ -24417,7 +24417,7 @@
         <v>82</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K188" t="s" s="2">
         <v>215</v>
@@ -24480,7 +24480,7 @@
         <v>80</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>82</v>
@@ -24513,7 +24513,7 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24532,16 +24532,16 @@
         <v>82</v>
       </c>
       <c r="J189" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K189" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>220</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
@@ -24603,7 +24603,7 @@
         <v>82</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>82</v>
@@ -24637,16 +24637,16 @@
         <v>80</v>
       </c>
       <c r="F190" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H190" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I190" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>556</v>
@@ -24716,13 +24716,13 @@
         <v>80</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>82</v>
@@ -24756,19 +24756,19 @@
         <v>80</v>
       </c>
       <c r="F191" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H191" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G191" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I191" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>565</v>
@@ -24805,7 +24805,7 @@
         <v>82</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X191" t="s" s="2">
         <v>569</v>
@@ -24835,13 +24835,13 @@
         <v>80</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>82</v>
@@ -24875,19 +24875,19 @@
         <v>80</v>
       </c>
       <c r="F192" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I192" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J192" t="s" s="2">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>575</v>
@@ -24952,13 +24952,13 @@
         <v>80</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>82</v>
@@ -24992,19 +24992,19 @@
         <v>80</v>
       </c>
       <c r="F193" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I193" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J193" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K193" t="s" s="2">
         <v>582</v>
@@ -25069,13 +25069,13 @@
         <v>80</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>587</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>82</v>
@@ -25109,19 +25109,19 @@
         <v>80</v>
       </c>
       <c r="F194" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I194" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G194" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J194" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K194" t="s" s="2">
         <v>590</v>
@@ -25143,7 +25143,7 @@
         <v>82</v>
       </c>
       <c r="R194" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>82</v>
@@ -25188,13 +25188,13 @@
         <v>80</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>82</v>
@@ -25228,7 +25228,7 @@
         <v>80</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>82</v>
@@ -25240,7 +25240,7 @@
         <v>82</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K195" t="s" s="2">
         <v>473</v>
@@ -25307,13 +25307,13 @@
         <v>80</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>82</v>
@@ -25322,7 +25322,7 @@
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>322</v>
@@ -25359,7 +25359,7 @@
         <v>82</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K196" t="s" s="2">
         <v>325</v>
@@ -25432,7 +25432,7 @@
         <v>82</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>82</v>
@@ -25551,7 +25551,7 @@
         <v>82</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-uicc-tnm.xlsx
+++ b/StructureDefinition-uicc-tnm.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
